--- a/Chick_GRD_2025.xlsx
+++ b/Chick_GRD_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinbenjamin/Desktop/McMaster/Synchrony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782FEC3A-2A72-3D4B-A678-8F0317DC8732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0DAEBF-B487-7445-98E1-9A8F10E1988C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{1B3A5626-488A-A948-82EA-312AB318F3D5}"/>
   </bookViews>
@@ -3402,7 +3402,7 @@
   <dimension ref="A1:Q812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
